--- a/SchedulingData/static8/pso/scheduling1_9.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_9.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23999999999999</v>
+        <v>65.92</v>
       </c>
       <c r="E2" t="n">
-        <v>24.956</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.76000000000001</v>
+        <v>58.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.084</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="4">
@@ -504,340 +504,340 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>87.3</v>
+        <v>68.64</v>
       </c>
       <c r="E4" t="n">
-        <v>26.4</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.74</v>
+        <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>27.296</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>68.64</v>
       </c>
       <c r="D6" t="n">
-        <v>76.73999999999999</v>
+        <v>119.3</v>
       </c>
       <c r="E6" t="n">
-        <v>25.996</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.73999999999999</v>
+        <v>65.92</v>
       </c>
       <c r="D7" t="n">
-        <v>133.14</v>
+        <v>111.16</v>
       </c>
       <c r="E7" t="n">
-        <v>21.976</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>131.18</v>
+        <v>87.7</v>
       </c>
       <c r="E8" t="n">
-        <v>21.172</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>134.18</v>
+        <v>37.5</v>
       </c>
       <c r="E9" t="n">
-        <v>22.352</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>133.14</v>
+        <v>119.3</v>
       </c>
       <c r="D10" t="n">
-        <v>188.36</v>
+        <v>190.4</v>
       </c>
       <c r="E10" t="n">
-        <v>19.064</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>188.36</v>
+        <v>111.16</v>
       </c>
       <c r="D11" t="n">
-        <v>243.4</v>
+        <v>172.94</v>
       </c>
       <c r="E11" t="n">
-        <v>16.16</v>
+        <v>19.616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48.74</v>
+        <v>87.7</v>
       </c>
       <c r="D12" t="n">
-        <v>125.08</v>
+        <v>142.78</v>
       </c>
       <c r="E12" t="n">
-        <v>24.272</v>
+        <v>20.032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>95.76000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="D13" t="n">
-        <v>175.26</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>23.244</v>
+        <v>22.396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134.18</v>
+        <v>172.94</v>
       </c>
       <c r="D14" t="n">
-        <v>206.26</v>
+        <v>243.48</v>
       </c>
       <c r="E14" t="n">
-        <v>18.264</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>243.4</v>
+        <v>58.1</v>
       </c>
       <c r="D15" t="n">
-        <v>294.06</v>
+        <v>122.28</v>
       </c>
       <c r="E15" t="n">
-        <v>12.224</v>
+        <v>23.552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125.08</v>
+        <v>142.78</v>
       </c>
       <c r="D16" t="n">
-        <v>209.98</v>
+        <v>227.28</v>
       </c>
       <c r="E16" t="n">
-        <v>19.892</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>209.98</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>276.78</v>
+        <v>151.44</v>
       </c>
       <c r="E17" t="n">
-        <v>15.812</v>
+        <v>18.316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>131.18</v>
+        <v>227.28</v>
       </c>
       <c r="D18" t="n">
-        <v>187.18</v>
+        <v>308.22</v>
       </c>
       <c r="E18" t="n">
-        <v>17.692</v>
+        <v>10.688</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>175.26</v>
+        <v>190.4</v>
       </c>
       <c r="D19" t="n">
-        <v>230.68</v>
+        <v>239.54</v>
       </c>
       <c r="E19" t="n">
-        <v>19.812</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>230.68</v>
+        <v>308.22</v>
       </c>
       <c r="D20" t="n">
-        <v>299.78</v>
+        <v>360.22</v>
       </c>
       <c r="E20" t="n">
-        <v>16.012</v>
+        <v>7.128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>187.18</v>
+        <v>122.28</v>
       </c>
       <c r="D21" t="n">
-        <v>239.28</v>
+        <v>186.66</v>
       </c>
       <c r="E21" t="n">
-        <v>13.612</v>
+        <v>19.744</v>
       </c>
     </row>
     <row r="22">
@@ -846,169 +846,169 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>299.78</v>
+        <v>186.66</v>
       </c>
       <c r="D22" t="n">
-        <v>361.38</v>
+        <v>241.06</v>
       </c>
       <c r="E22" t="n">
-        <v>12.452</v>
+        <v>15.944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>151.44</v>
       </c>
       <c r="D23" t="n">
-        <v>87.7</v>
+        <v>224.12</v>
       </c>
       <c r="E23" t="n">
-        <v>24.4</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>87.7</v>
+        <v>243.48</v>
       </c>
       <c r="D24" t="n">
-        <v>148.8</v>
+        <v>302.78</v>
       </c>
       <c r="E24" t="n">
-        <v>19.42</v>
+        <v>13.812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>361.38</v>
+        <v>239.54</v>
       </c>
       <c r="D25" t="n">
-        <v>445.68</v>
+        <v>291.82</v>
       </c>
       <c r="E25" t="n">
-        <v>7.112</v>
+        <v>10.508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>294.06</v>
+        <v>241.06</v>
       </c>
       <c r="D26" t="n">
-        <v>355.36</v>
+        <v>322.76</v>
       </c>
       <c r="E26" t="n">
-        <v>8.704000000000001</v>
+        <v>11.864</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>445.68</v>
+        <v>302.78</v>
       </c>
       <c r="D27" t="n">
-        <v>497</v>
+        <v>405.12</v>
       </c>
       <c r="E27" t="n">
-        <v>4.12</v>
+        <v>9.667999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>206.26</v>
+        <v>77</v>
       </c>
       <c r="D28" t="n">
-        <v>273.04</v>
+        <v>126.32</v>
       </c>
       <c r="E28" t="n">
-        <v>14.676</v>
+        <v>21.168</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>239.28</v>
+        <v>322.76</v>
       </c>
       <c r="D29" t="n">
-        <v>326.7</v>
+        <v>372.46</v>
       </c>
       <c r="E29" t="n">
-        <v>9.960000000000001</v>
+        <v>8.023999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>276.78</v>
+        <v>224.12</v>
       </c>
       <c r="D30" t="n">
-        <v>326.04</v>
+        <v>269.74</v>
       </c>
       <c r="E30" t="n">
-        <v>12.016</v>
+        <v>10.236</v>
       </c>
     </row>
     <row r="31">
@@ -1017,112 +1017,112 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>148.8</v>
+        <v>126.32</v>
       </c>
       <c r="D31" t="n">
-        <v>210.8</v>
+        <v>180.52</v>
       </c>
       <c r="E31" t="n">
-        <v>15.34</v>
+        <v>17.868</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>497</v>
+        <v>360.22</v>
       </c>
       <c r="D32" t="n">
-        <v>553.04</v>
+        <v>413.42</v>
       </c>
       <c r="E32" t="n">
-        <v>1.656</v>
+        <v>4.408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>553.04</v>
+        <v>180.52</v>
       </c>
       <c r="D33" t="n">
-        <v>621.73</v>
+        <v>225.96</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>355.36</v>
+        <v>225.96</v>
       </c>
       <c r="D34" t="n">
-        <v>418.04</v>
+        <v>273.26</v>
       </c>
       <c r="E34" t="n">
-        <v>4.056</v>
+        <v>11.364</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>210.8</v>
+        <v>405.12</v>
       </c>
       <c r="D35" t="n">
-        <v>266.42</v>
+        <v>470.82</v>
       </c>
       <c r="E35" t="n">
-        <v>11.908</v>
+        <v>6.188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>326.04</v>
+        <v>269.74</v>
       </c>
       <c r="D36" t="n">
-        <v>392.54</v>
+        <v>325.4</v>
       </c>
       <c r="E36" t="n">
-        <v>9.456</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>326.7</v>
+        <v>325.4</v>
       </c>
       <c r="D37" t="n">
-        <v>406.58</v>
+        <v>398.02</v>
       </c>
       <c r="E37" t="n">
-        <v>5.592</v>
+        <v>2.648</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>273.04</v>
+        <v>372.46</v>
       </c>
       <c r="D38" t="n">
-        <v>347.42</v>
+        <v>412.32</v>
       </c>
       <c r="E38" t="n">
-        <v>10.868</v>
+        <v>5.168</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>347.42</v>
+        <v>413.42</v>
       </c>
       <c r="D39" t="n">
-        <v>430.98</v>
+        <v>464.02</v>
       </c>
       <c r="E39" t="n">
-        <v>7.592</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="40">
@@ -1188,131 +1188,131 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>418.04</v>
+        <v>464.02</v>
       </c>
       <c r="D40" t="n">
-        <v>456.48</v>
+        <v>539.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>1.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>456.48</v>
+        <v>291.82</v>
       </c>
       <c r="D41" t="n">
-        <v>545.38</v>
+        <v>333.36</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>7.484</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>545.38</v>
+        <v>333.36</v>
       </c>
       <c r="D42" t="n">
-        <v>591.9</v>
+        <v>399.08</v>
       </c>
       <c r="E42" t="n">
-        <v>26.048</v>
+        <v>4.492</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>591.9</v>
+        <v>399.08</v>
       </c>
       <c r="D43" t="n">
-        <v>637.52</v>
+        <v>464.24</v>
       </c>
       <c r="E43" t="n">
-        <v>22.616</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>266.42</v>
+        <v>464.24</v>
       </c>
       <c r="D44" t="n">
-        <v>324.72</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>7.708</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>392.54</v>
+        <v>412.32</v>
       </c>
       <c r="D45" t="n">
-        <v>452</v>
+        <v>495.32</v>
       </c>
       <c r="E45" t="n">
-        <v>6.6</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>406.58</v>
+        <v>495.32</v>
       </c>
       <c r="D46" t="n">
-        <v>451</v>
+        <v>575.1799999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>2.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
@@ -1321,71 +1321,71 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>324.72</v>
+        <v>273.26</v>
       </c>
       <c r="D47" t="n">
-        <v>395.28</v>
+        <v>333.28</v>
       </c>
       <c r="E47" t="n">
-        <v>3.772</v>
+        <v>8.452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>637.52</v>
+        <v>333.28</v>
       </c>
       <c r="D48" t="n">
-        <v>695.12</v>
+        <v>371.62</v>
       </c>
       <c r="E48" t="n">
-        <v>18.976</v>
+        <v>5.748</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>395.28</v>
+        <v>575.1799999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>439.9</v>
+        <v>649.5599999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9399999999999999</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>439.9</v>
+        <v>398.02</v>
       </c>
       <c r="D50" t="n">
-        <v>529.72</v>
+        <v>469.62</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -1393,97 +1393,97 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>621.73</v>
+        <v>469.62</v>
       </c>
       <c r="D51" t="n">
-        <v>701.87</v>
+        <v>538.5</v>
       </c>
       <c r="E51" t="n">
-        <v>26.136</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>701.87</v>
+        <v>539.9400000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>755.65</v>
+        <v>581.58</v>
       </c>
       <c r="E52" t="n">
-        <v>22.888</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>451</v>
+        <v>470.82</v>
       </c>
       <c r="D53" t="n">
-        <v>538.04</v>
+        <v>548.62</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>538.04</v>
+        <v>548.62</v>
       </c>
       <c r="D54" t="n">
-        <v>573.12</v>
+        <v>626.54</v>
       </c>
       <c r="E54" t="n">
-        <v>27.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>573.12</v>
+        <v>581.58</v>
       </c>
       <c r="D55" t="n">
-        <v>618.52</v>
+        <v>656</v>
       </c>
       <c r="E55" t="n">
-        <v>23.292</v>
+        <v>24.704</v>
       </c>
     </row>
     <row r="56">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>529.72</v>
+        <v>371.62</v>
       </c>
       <c r="D56" t="n">
-        <v>601.72</v>
+        <v>418.44</v>
       </c>
       <c r="E56" t="n">
-        <v>24.48</v>
+        <v>2.196</v>
       </c>
     </row>
     <row r="57">
@@ -1511,36 +1511,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>452</v>
+        <v>626.54</v>
       </c>
       <c r="D57" t="n">
-        <v>501.7</v>
+        <v>686.34</v>
       </c>
       <c r="E57" t="n">
-        <v>2.76</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>430.98</v>
+        <v>656</v>
       </c>
       <c r="D58" t="n">
-        <v>513.3200000000001</v>
+        <v>721.1</v>
       </c>
       <c r="E58" t="n">
-        <v>3.448</v>
+        <v>20.804</v>
       </c>
     </row>
     <row r="59">
@@ -1549,169 +1549,169 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>513.3200000000001</v>
+        <v>559.6900000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>579.36</v>
+        <v>651.79</v>
       </c>
       <c r="E59" t="n">
-        <v>0.484</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>579.36</v>
+        <v>686.34</v>
       </c>
       <c r="D60" t="n">
-        <v>665.1900000000001</v>
+        <v>736.96</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>22.788</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>695.12</v>
+        <v>538.5</v>
       </c>
       <c r="D61" t="n">
-        <v>753.52</v>
+        <v>603.4</v>
       </c>
       <c r="E61" t="n">
-        <v>16.256</v>
+        <v>22.372</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>618.52</v>
+        <v>649.5599999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>703.36</v>
+        <v>720.66</v>
       </c>
       <c r="E62" t="n">
-        <v>20.388</v>
+        <v>23.672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>755.65</v>
+        <v>418.44</v>
       </c>
       <c r="D63" t="n">
-        <v>835.75</v>
+        <v>500.65</v>
       </c>
       <c r="E63" t="n">
-        <v>18.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>501.7</v>
+        <v>500.65</v>
       </c>
       <c r="D64" t="n">
-        <v>602.48</v>
+        <v>576.35</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>602.48</v>
+        <v>603.4</v>
       </c>
       <c r="D65" t="n">
-        <v>689.02</v>
+        <v>659.84</v>
       </c>
       <c r="E65" t="n">
-        <v>25.996</v>
+        <v>18.368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>665.1900000000001</v>
+        <v>576.35</v>
       </c>
       <c r="D66" t="n">
-        <v>740.89</v>
+        <v>636.39</v>
       </c>
       <c r="E66" t="n">
-        <v>25.58</v>
+        <v>21.716</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>689.02</v>
+        <v>651.79</v>
       </c>
       <c r="D67" t="n">
-        <v>787.02</v>
+        <v>701.05</v>
       </c>
       <c r="E67" t="n">
-        <v>21.796</v>
+        <v>22.124</v>
       </c>
     </row>
     <row r="68">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>703.36</v>
+        <v>659.84</v>
       </c>
       <c r="D68" t="n">
-        <v>762.74</v>
+        <v>730.46</v>
       </c>
       <c r="E68" t="n">
-        <v>17.58</v>
+        <v>14.416</v>
       </c>
     </row>
     <row r="69">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>753.52</v>
+        <v>721.1</v>
       </c>
       <c r="D69" t="n">
-        <v>817.62</v>
+        <v>792.2</v>
       </c>
       <c r="E69" t="n">
-        <v>12.476</v>
+        <v>16.784</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>601.72</v>
+        <v>636.39</v>
       </c>
       <c r="D70" t="n">
-        <v>663.4400000000001</v>
+        <v>703.17</v>
       </c>
       <c r="E70" t="n">
-        <v>20.928</v>
+        <v>18.128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>762.74</v>
+        <v>720.66</v>
       </c>
       <c r="D71" t="n">
-        <v>807.04</v>
+        <v>784.3200000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>14.28</v>
+        <v>20.396</v>
       </c>
     </row>
   </sheetData>
